--- a/data/trans_camb/P7C_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-0,54</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,93</t>
+          <t>-9,75; 8,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,75</t>
+          <t>-10,63; 7,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 9,36</t>
+          <t>-11,49; 6,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,62</t>
+          <t>-2,34; 33,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,19</t>
+          <t>-7,21; 6,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 4,6</t>
+          <t>-8,0; 6,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,39</t>
+          <t>-8,83; 5,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,4</t>
+          <t>-3,27; 13,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 4,83</t>
+          <t>-6,15; 5,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 5,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 4,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 20,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-4,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-7,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>-2,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-4,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 56,29</t>
+          <t>-38,84; 57,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 46,15</t>
+          <t>-42,21; 47,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 61,41</t>
+          <t>-45,15; 43,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 46,21</t>
+          <t>-13,01; 206,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 42,1</t>
+          <t>-34,98; 51,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 37,57</t>
+          <t>-35,63; 48,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 29,87</t>
+          <t>-40,53; 41,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 30,37</t>
+          <t>-15,07; 100,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 34,04</t>
+          <t>-28,89; 32,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 35,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 27,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 121,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 14,87</t>
+          <t>-6,74; 8,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 6,42</t>
+          <t>-7,12; 7,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,31</t>
+          <t>-6,73; 9,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 10,15</t>
+          <t>-0,12; 19,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 7,75</t>
+          <t>-8,39; 10,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 7,88</t>
+          <t>-9,03; 10,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,36</t>
+          <t>-9,6; 10,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,47</t>
+          <t>-4,42; 19,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4,42</t>
+          <t>-5,84; 7,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 6,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 6,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 17,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>99,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>44,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 206,06</t>
+          <t>-54,78; 164,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 97,97</t>
+          <t>-58,07; 141,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 92,89</t>
+          <t>-52,92; 169,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 56,35</t>
+          <t>-3,89; 326,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 44,89</t>
+          <t>-28,49; 51,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 43,82</t>
+          <t>-32,11; 52,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 59,41</t>
+          <t>-33,23; 51,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 32,54</t>
+          <t>-17,14; 101,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 31,42</t>
+          <t>-30,21; 50,25</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 48,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-30,71; 46,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 122,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 25,69</t>
+          <t>-45,17; 46,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 16,39</t>
+          <t>-49,02; 39,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 23,31</t>
+          <t>-44,66; 46,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 12,43</t>
+          <t>-41,06; 50,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 11,16</t>
+          <t>-14,28; 16,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 10,81</t>
+          <t>-14,96; 15,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 16,78</t>
+          <t>-15,2; 15,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 11,04</t>
+          <t>-13,62; 17,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 15,27</t>
+          <t>-23,47; 26,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; 22,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-22,74; 27,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-22,44; 31,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,94%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 528,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 357,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,66; 422,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 115,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 106,89</t>
+          <t>-66,95; 290,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,3; 103,69</t>
+          <t>-68,11; 272,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 150,49</t>
+          <t>-69,46; 266,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,91; 103,4</t>
+          <t>-61,61; 301,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 138,03</t>
+          <t>-82,57; 264,47</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-83,52; 230,45</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-80,48; 266,17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-78,45; 296,88</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,86</t>
+          <t>-8,83; 8,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,21</t>
+          <t>-9,44; 6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,55</t>
+          <t>-9,03; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,25</t>
+          <t>-0,17; 23,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,36</t>
+          <t>-5,28; 6,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,9</t>
+          <t>-5,52; 5,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,76</t>
+          <t>-6,07; 4,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,8</t>
+          <t>-1,01; 13,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,24</t>
+          <t>-4,43; 5,63</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 4,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 4,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 14,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 63,27</t>
+          <t>-40,92; 65,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 42,27</t>
+          <t>-45,85; 47,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 44,72</t>
+          <t>-42,38; 60,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 32,48</t>
+          <t>-4,45; 153,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 27,18</t>
+          <t>-23,05; 38,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 24,95</t>
+          <t>-23,79; 31,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 31,43</t>
+          <t>-26,02; 27,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 18,83</t>
+          <t>-4,61; 75,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 21,24</t>
+          <t>-21,48; 34,25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 24,51</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,93; 23,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 90,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
